--- a/Data_file/import_product_110425.xlsx
+++ b/Data_file/import_product_110425.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>categ_id</t>
   </si>
@@ -91,43 +91,622 @@
     <t>image</t>
   </si>
   <si>
-    <t>All / 2-FG-Production / บันไดสำเร็จรูป / ราวบันไดเหล็ก</t>
-  </si>
-  <si>
-    <t>201080138</t>
-  </si>
-  <si>
-    <t>NFG02-002-00PS99</t>
-  </si>
-  <si>
-    <t>รางยูฝังปูน</t>
+    <t>All / 9-INVENTORY / OB</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-240</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN รุ่น FM60140T7(DR-L) ขนาด 1358x457x284 mm. สีขาว</t>
   </si>
   <si>
     <t>PCS</t>
   </si>
   <si>
-    <t>All / 4-RM / 08 ACC / อื่นๆ</t>
-  </si>
-  <si>
-    <t>408090001</t>
-  </si>
-  <si>
-    <t>NASS2-202-0018-090</t>
-  </si>
-  <si>
-    <t>ประแจแอลหกเหลี่ยม ขนาด 4 มม.(สีรุ้ง)</t>
-  </si>
-  <si>
-    <t>All / 5-CONSUMABLE / อื่นๆ</t>
-  </si>
-  <si>
-    <t>511010007</t>
-  </si>
-  <si>
-    <t>CO03-306-0004-000</t>
-  </si>
-  <si>
-    <t>ปากกา Unipaint สีขาว รุ่น PX-20</t>
+    <t>NFGH4-SF-0001-032</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN รุ่น F56100 ขนาด 958x400x350 mm. สีขาว</t>
+  </si>
+  <si>
+    <t>MO09SP101</t>
+  </si>
+  <si>
+    <t>MO09/SP  ฝารองนั่ง รุ่น MO09N ทั้งชุด ฝา SLOW SLEF</t>
+  </si>
+  <si>
+    <t>MSW0009101.</t>
+  </si>
+  <si>
+    <t>MSW09 ชุดฝักบัวเรนชาวเวอร์ พร้อมฝักบัว แบบเหลี่ยม SWR03C พร้อมวาล์วเปิด-ปิด SPV05.</t>
+  </si>
+  <si>
+    <t>SSP00274</t>
+  </si>
+  <si>
+    <t>ฉากอลูมิเนียมเส้น ยาว3เมตร สีดำ</t>
+  </si>
+  <si>
+    <t>SSP00325</t>
+  </si>
+  <si>
+    <t>เหล็กรับชั้นหนีบกระจก GIANT KINGKONG สีนิกเกิ้ล ขนาด 13.5x16x15มม. (แพ็ค 4ชิ้น) ใช้สำหรับ SW501T1 SW501U5</t>
+  </si>
+  <si>
+    <t>MS02-220-0150x0050-2.3</t>
+  </si>
+  <si>
+    <t>เหล็กกล่อง 150x50x1.7 mm.(32กก.)</t>
+  </si>
+  <si>
+    <t>MS02-220-12.5x12.5-1.2</t>
+  </si>
+  <si>
+    <t>เหล็กกล่อง 12.5x12.5x1.2 mm.(2.4กก.) ขนาดจริง 12.0x12.0x1.2 mm.</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-244</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN สำเร็จ ขนาด 32x200x245mm. ข้าง R สีขาว</t>
+  </si>
+  <si>
+    <t>MA092P101</t>
+  </si>
+  <si>
+    <t>MA092 (P) มิราเคิล  เฉพาะขาตั้งอ่าง  สีขาว</t>
+  </si>
+  <si>
+    <t>MB0010101</t>
+  </si>
+  <si>
+    <t>MB10  ไฟน์  อ่างอาบน้ำธรรมดา พร้อมสะดืออ่างอาบน้ำ (แบบฝัง)  สีขาว</t>
+  </si>
+  <si>
+    <t>MU0006NF101</t>
+  </si>
+  <si>
+    <t>MU06(NF) โถปัสสาวะชาย สีขาว (ไม่มีก๊อกน้ำ) (MU801)</t>
+  </si>
+  <si>
+    <t>SWH0001S100</t>
+  </si>
+  <si>
+    <t>SWH01 (SHOW) ฝ้กบัวอาบน้ำ 1 ฟังก์ชั่น พร้อมสายฝักบัว และขอแขวน</t>
+  </si>
+  <si>
+    <t>SSP00015</t>
+  </si>
+  <si>
+    <t>กระดาษทรายแผ่นขัดแห้ง HSCN 9" x 11" P.600 ( 100 แผ่น/แพ็ค )</t>
+  </si>
+  <si>
+    <t>SSP00016</t>
+  </si>
+  <si>
+    <t>สก็อตไบร์ท ยี่ห้อ 3M ขนาด 6" x 9" ( 100 แผ่น/กล่อง )</t>
+  </si>
+  <si>
+    <t>SSP00020</t>
+  </si>
+  <si>
+    <t>ตรายางตัวเลข 6 หลัก ยี่ห้อ ART ขนาด 7 มม.</t>
+  </si>
+  <si>
+    <t>SSP00021</t>
+  </si>
+  <si>
+    <t>ตรายางตัวเลข 8 หลัก ยี่ห้อ ART ขนาด 7 มม.</t>
+  </si>
+  <si>
+    <t>SSP00023</t>
+  </si>
+  <si>
+    <t>ตะปูตอกไม้ ขนาด 1 นิ้ว ( 18 กก./ลัง )</t>
+  </si>
+  <si>
+    <t>SSP000246</t>
+  </si>
+  <si>
+    <t>แหวนยางรองแบบมีตะแกรง</t>
+  </si>
+  <si>
+    <t>SSP00037</t>
+  </si>
+  <si>
+    <t>ดอกเจาะเหล็ก ขนาด 5.5 มิล</t>
+  </si>
+  <si>
+    <t>SSP00038</t>
+  </si>
+  <si>
+    <t>ดอกเจาะหัวเพชร ขนาด 14 มิล</t>
+  </si>
+  <si>
+    <t>SSP00039</t>
+  </si>
+  <si>
+    <t>ดอกเจาะปูน เบอร์ 14</t>
+  </si>
+  <si>
+    <t>SSP00043</t>
+  </si>
+  <si>
+    <t>แหวนอีแปะ อลูมิเนียม M10 ขนาด 3/8"</t>
+  </si>
+  <si>
+    <t>SSP00059</t>
+  </si>
+  <si>
+    <t>กระดาษกาวย่น ยี่ห้อ INTER TAPE ขนาด 3/4 นิ้ว ความยาว 20 หลา ( 96 ม้วน/ลัง )</t>
+  </si>
+  <si>
+    <t>SSP00065</t>
+  </si>
+  <si>
+    <t>ตรายางตัวเลข 6 หลัก ยี่ห้อ EASY ขนาด 5 มม.</t>
+  </si>
+  <si>
+    <t>SSP00066</t>
+  </si>
+  <si>
+    <t>ตรายางตัวเลข 8 หลัก ยี่ห้อ EASY ขนาด 5 มม.</t>
+  </si>
+  <si>
+    <t>SSP00070</t>
+  </si>
+  <si>
+    <t>แปรงทาสี ขนาด 1 1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00075</t>
+  </si>
+  <si>
+    <t>กาวลาเท็กซ์ ยี่ห้อ TOA เบอร์ 35A ( 10 กก./กล่อง )</t>
+  </si>
+  <si>
+    <t>SSP00076</t>
+  </si>
+  <si>
+    <t>น็อต 2 หุน ยาว 2 นิ้ว เกลียวหยาบ ชุป</t>
+  </si>
+  <si>
+    <t>SSP00078</t>
+  </si>
+  <si>
+    <t>พู่กันสีอะคริลิค หัวแบน เบอร์ 12</t>
+  </si>
+  <si>
+    <t>SSP00090</t>
+  </si>
+  <si>
+    <t>สกรูเกลียวปล่อย หัว F ขนาด 7x1 นิ้ว ( 1000 ตัว/กล่อง )</t>
+  </si>
+  <si>
+    <t>SSP00095</t>
+  </si>
+  <si>
+    <t>หมึกอุตสาหกรรม ยี่ห้อ LION MC-55 สีดำ</t>
+  </si>
+  <si>
+    <t>SSP00105</t>
+  </si>
+  <si>
+    <t>ใบตัดกระเบื้อง ขนาด 4 นิ้ว ยี่ห้อ Makita</t>
+  </si>
+  <si>
+    <t>SSP00113</t>
+  </si>
+  <si>
+    <t>ดอกเจาะปูน เบอร์ 6.5</t>
+  </si>
+  <si>
+    <t>SSP00114</t>
+  </si>
+  <si>
+    <t>ดอกเจาะปูน เบอร์ 10</t>
+  </si>
+  <si>
+    <t>SSP00115</t>
+  </si>
+  <si>
+    <t>ดอกไขควงหัวลูกบ๊อกซ์ MAKITA เบอร์ 10 รุ่น E-08822 ขนาด 10x55 มม.</t>
+  </si>
+  <si>
+    <t>SSP00116</t>
+  </si>
+  <si>
+    <t>บล็อก เบอร์ 11 ขนาด 11x65 มิล</t>
+  </si>
+  <si>
+    <t>SSP00117</t>
+  </si>
+  <si>
+    <t>ใบตัดเหล็ก ขนาด 14 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00119</t>
+  </si>
+  <si>
+    <t>กระดาษทรายกลมหลังขูดขน HSCW 3" P.1000 ( 100 แผ่น/แพ็ค )</t>
+  </si>
+  <si>
+    <t>SSP00128</t>
+  </si>
+  <si>
+    <t>เกียง 2"</t>
+  </si>
+  <si>
+    <t>SSP00133</t>
+  </si>
+  <si>
+    <t>แอร์บับเบิ้ล ขนาด 1.30 x 100 ม.</t>
+  </si>
+  <si>
+    <t>SSP00164</t>
+  </si>
+  <si>
+    <t>ดอกเจาะโฮซอ ขนาด 12 มม.</t>
+  </si>
+  <si>
+    <t>SSP00173</t>
+  </si>
+  <si>
+    <t>ใบเจียรเหล็ก ขนาด 4" แบบหนา</t>
+  </si>
+  <si>
+    <t>SSP00205</t>
+  </si>
+  <si>
+    <t>ชุดพุ๊กพลาสติก + สกรูเกลียวปล่อย เบอร์ 7 X 1 1/2 " PH (แพ็ค 4)</t>
+  </si>
+  <si>
+    <t>SSP00210</t>
+  </si>
+  <si>
+    <t>ดอกเจาะสแตนเลส ขนาด 3/8</t>
+  </si>
+  <si>
+    <t>SSP00211</t>
+  </si>
+  <si>
+    <t>ดอกเจาะสแตนเลส ขนาด 1/8</t>
+  </si>
+  <si>
+    <t>SSP00212</t>
+  </si>
+  <si>
+    <t>ดอกเจาะสแตนเลส ขนาด 9/64</t>
+  </si>
+  <si>
+    <t>SSP00213</t>
+  </si>
+  <si>
+    <t>ดอกเจาะสแตนเลส ขนาด 11/64</t>
+  </si>
+  <si>
+    <t>SSP00218</t>
+  </si>
+  <si>
+    <t>ใบเจียรไม้ ขนาด A60 4นิ้ว (25ใบ/แพ็ค)</t>
+  </si>
+  <si>
+    <t>SSP00219</t>
+  </si>
+  <si>
+    <t>ใบเจียรไฟเบอร์ ขนาด C60 4นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00220</t>
+  </si>
+  <si>
+    <t>ใบเลื่อยจิ๊กซอว์ ยี่ห้อ MAKITA เบอร์ 3</t>
+  </si>
+  <si>
+    <t>SSP00221</t>
+  </si>
+  <si>
+    <t>ใบเลื่อยจิ๊กซอว์ ยี่ห้อ BOSS รุ่น T101B</t>
+  </si>
+  <si>
+    <t>SSP00222</t>
+  </si>
+  <si>
+    <t>ดินสอเขียนไม้  สีแดง #741 (1กล่อง/72แท่ง)</t>
+  </si>
+  <si>
+    <t>SSP00224</t>
+  </si>
+  <si>
+    <t>สีสเปร์ย ยี่ห้อ KOBE เบอร์ 910 สีดำ</t>
+  </si>
+  <si>
+    <t>SSP00233</t>
+  </si>
+  <si>
+    <t>ดอกเจาะปูน เบอร์ 13</t>
+  </si>
+  <si>
+    <t>SSP00234</t>
+  </si>
+  <si>
+    <t>ใบเลื่อยจิ๊กซอ Bosch T118A</t>
+  </si>
+  <si>
+    <t>SSP00239</t>
+  </si>
+  <si>
+    <t>กาวแท่งใส</t>
+  </si>
+  <si>
+    <t>SSP00240</t>
+  </si>
+  <si>
+    <t>ดอกเจาะโฮซอ ขนาด 5 มม.</t>
+  </si>
+  <si>
+    <t>SSP00241</t>
+  </si>
+  <si>
+    <t>ดอกเจาะโฮซอ ขนาด 6 มม.</t>
+  </si>
+  <si>
+    <t>SSP00242</t>
+  </si>
+  <si>
+    <t>ดอกเจาะโฮซอ ขนาด 10 มม.</t>
+  </si>
+  <si>
+    <t>SSP00248</t>
+  </si>
+  <si>
+    <t>ปุ่มรับชั้น (FBS002)</t>
+  </si>
+  <si>
+    <t>SSP00249</t>
+  </si>
+  <si>
+    <t>กิ๊ฟจับท่อ 1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00250</t>
+  </si>
+  <si>
+    <t>คลิปจับท่อก้ามปู 1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00251</t>
+  </si>
+  <si>
+    <t>ข้อต่อตรงเกลียวใน 1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00254</t>
+  </si>
+  <si>
+    <t>ข้องอเกลียวใน 90องศา</t>
+  </si>
+  <si>
+    <t>SSP00255</t>
+  </si>
+  <si>
+    <t>ข้องอ 45องศา 1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00256</t>
+  </si>
+  <si>
+    <t>ข้องอ 90องศา 1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00257</t>
+  </si>
+  <si>
+    <t>ท่อสามทางเกลียวนอก 1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00258</t>
+  </si>
+  <si>
+    <t>ท่อสามทางเกลียวใน 1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00259</t>
+  </si>
+  <si>
+    <t>ท่อ PVC สีฟ้า   1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00260</t>
+  </si>
+  <si>
+    <t>นิปเปิ้ลสีฟ้า 18มม. 1/2นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00261</t>
+  </si>
+  <si>
+    <t>ใบเลื่อยจิ๊กซอว์ตัดเหล็ก ยี่ห้อ BOSCH MA118A        (แพ็คละ5ใบ)</t>
+  </si>
+  <si>
+    <t>SSP00267</t>
+  </si>
+  <si>
+    <t>ดอกเจาะเร้าเตอร์ ขนาด 1/4*1/4   YC0501</t>
+  </si>
+  <si>
+    <t>SSP00276</t>
+  </si>
+  <si>
+    <t>ซิลิโคนสีดำ-Black D 85033/C33 ยี่ห้อ สปาโก้</t>
+  </si>
+  <si>
+    <t>SSP00286</t>
+  </si>
+  <si>
+    <t>ลูกยางรองชุดน้ำออกใช้กับโถสุขภัณฑ์ทุกรุ่น</t>
+  </si>
+  <si>
+    <t>SSP00287</t>
+  </si>
+  <si>
+    <t>ลูกยางรองชุดน้ำเข้าใช้กับโถสุขภัณฑ์ทุกรุ่น</t>
+  </si>
+  <si>
+    <t>SSP00288</t>
+  </si>
+  <si>
+    <t>น้ำยาขัดเงาสแตนเลส</t>
+  </si>
+  <si>
+    <t>SSP00291</t>
+  </si>
+  <si>
+    <t>ถุงมือผ้าฝ้ายสีขาว (แบบบาง)</t>
+  </si>
+  <si>
+    <t>SSP00292</t>
+  </si>
+  <si>
+    <t>ดอกเจาะหัวเพชร ขนาด 32 นิ้ว</t>
+  </si>
+  <si>
+    <t>SSP00311</t>
+  </si>
+  <si>
+    <t>สีสเปรย์ ยี่ห้อ KOBE เบอร์ 265 สี Cocoa Brown ขนาด 400 CC.</t>
+  </si>
+  <si>
+    <t>SSP00318</t>
+  </si>
+  <si>
+    <t>กระดาษทรายแผ่นขัดแห้ง 9" x 11" P.320</t>
+  </si>
+  <si>
+    <t>SSP00322</t>
+  </si>
+  <si>
+    <t>โอริงยาง สีดำ NR Rubber Gasket Size : OD 45xID 22 mm. Thk 5 mm. Asper Drawing</t>
+  </si>
+  <si>
+    <t>SSP00323</t>
+  </si>
+  <si>
+    <t>ดอกไขควง MAKITA รุ่น D-34833 ขนาด 2x110 มม. ( 10 ชิ้น/แพ็ค )</t>
+  </si>
+  <si>
+    <t>SSP00328</t>
+  </si>
+  <si>
+    <t>ป้ายโลหะ Logo Mogen x MOTIF DEVELOPMENT พื้นแฮร์ลายขนาด 6 x 1.2 ซม.</t>
+  </si>
+  <si>
+    <t>SSP00332</t>
+  </si>
+  <si>
+    <t>ข้อต่อลดเหลี่ยม ผู้/เมีย ทองเหลือง ขนาด 3/4" x 1/2"</t>
+  </si>
+  <si>
+    <t>SSP00337</t>
+  </si>
+  <si>
+    <t>ข้อต่อ PVC 1/2" งอ 45 องศา</t>
+  </si>
+  <si>
+    <t>SSP00340</t>
+  </si>
+  <si>
+    <t>หมวกปิดหัวสกรู M4 สกรูเบอร์ 7 Giant kingkong สีขาว</t>
+  </si>
+  <si>
+    <t>SSP00341</t>
+  </si>
+  <si>
+    <t>สกรูสแตนเลส 304 เกลียวปล่อยหัว F เบอร์ 7 ขนาด 1 1/4"</t>
+  </si>
+  <si>
+    <t>SSP00342</t>
+  </si>
+  <si>
+    <t>สกรูสแตนเลส 304 เกลียวปล่อยหัว F เบอร์ 7 ขนาด 1/2"</t>
+  </si>
+  <si>
+    <t>SSP00347</t>
+  </si>
+  <si>
+    <t>หมวกปิดหัวสกรู M4 สกรูเบอร์ 7 Giant kingkong สีดำ</t>
+  </si>
+  <si>
+    <t>SSP00352</t>
+  </si>
+  <si>
+    <t>หัวน็อตหมวก สแตนเลส 304 M6</t>
+  </si>
+  <si>
+    <t>SSP00356</t>
+  </si>
+  <si>
+    <t>แหวนอีแปะ ชุปขาว M10</t>
+  </si>
+  <si>
+    <t>SSP00358</t>
+  </si>
+  <si>
+    <t>ยางโอริง กันบาดท่อ ขนาด 5 ซม. (ใช้กับ MLC10)</t>
+  </si>
+  <si>
+    <t>SSP00359</t>
+  </si>
+  <si>
+    <t>ช่องร้อยจัดเก็บสายไฟ พร้อมแผ่นกันฝุ่น สีเงิน ขนาด 80x160 มม. (ใช้กับ MLC10)</t>
+  </si>
+  <si>
+    <t>SSP00376</t>
+  </si>
+  <si>
+    <t>หัวน็อตดำ M5x0.8P  S=8</t>
+  </si>
+  <si>
+    <t>SSP00394</t>
+  </si>
+  <si>
+    <t>ประแจหกเหลี่ยม ขนาด 3 มม.</t>
+  </si>
+  <si>
+    <t>SSP00406</t>
+  </si>
+  <si>
+    <t>น้ำยาขัดเงาสแตนเลส  (999)</t>
+  </si>
+  <si>
+    <t>SSP00319</t>
+  </si>
+  <si>
+    <t>ตัวยึดกระจกแบบหนีบสำหรับ SW501T1/SW501U5</t>
+  </si>
+  <si>
+    <t>SSP00001</t>
+  </si>
+  <si>
+    <t>ไม้ตีลัง ไม้สนแดง ขนาด 2.20 ม. หน้ากว้าง 7 ซม. หนา 15-20 มม.  ( 10 ท่อน/มัด )</t>
+  </si>
+  <si>
+    <t>SSP00334</t>
+  </si>
+  <si>
+    <t>ท่อ PP-R Green Pipe คลิปก้ามปูสั้น ขนาด D20 mm. (51L020-000)</t>
+  </si>
+  <si>
+    <t>SSP00335</t>
+  </si>
+  <si>
+    <t>ท่อ PP-R Green Pipe ปลั๊กอุด ขนาด R 1/2"</t>
+  </si>
+  <si>
+    <t>SSP00336</t>
+  </si>
+  <si>
+    <t>ท่อ PP-R Green Pipe ข้อต่อตรงเกลียวนอก ขนาด D20 mm. 3/4" (52C020-020)</t>
   </si>
 </sst>
 </file>
@@ -154,12 +733,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,16 +757,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,13 +783,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -224,6 +809,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -423,17 +1009,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -460,10 +1046,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -702,12 +1288,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -984,7 +1570,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1011,10 +1597,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1264,7 +1850,7 @@
   <cols>
     <col min="1" max="1" width="73.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5859" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6719" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.6719" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.1719" style="1" customWidth="1"/>
@@ -1359,17 +1945,15 @@
       <c r="B2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1398,22 +1982,20 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1440,22 +2022,20 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1481,21 +2061,33 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1509,21 +2101,33 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1537,21 +2141,33 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1565,21 +2181,33 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1593,21 +2221,33 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1621,21 +2261,33 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>30</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="2">
+        <v>31</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1649,21 +2301,33 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1677,21 +2341,33 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1705,21 +2381,33 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1733,21 +2421,33 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1761,21 +2461,33 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1789,21 +2501,33 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1817,21 +2541,33 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1845,21 +2581,33 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1873,21 +2621,33 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1901,21 +2661,33 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1929,21 +2701,33 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1957,21 +2741,33 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1985,21 +2781,33 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2013,21 +2821,33 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="O24" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2041,21 +2861,33 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="O25" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2069,21 +2901,33 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2097,21 +2941,33 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2125,21 +2981,33 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="O28" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2153,21 +3021,33 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="O29" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2181,21 +3061,33 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="O30" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -2209,21 +3101,33 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -2237,21 +3141,33 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="O32" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -2265,21 +3181,33 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="O33" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -2293,21 +3221,33 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="O34" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -2321,21 +3261,33 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="O35" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -2349,21 +3301,33 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2377,21 +3341,33 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="L37" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="O37" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2405,21 +3381,33 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="L38" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="O38" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -2433,21 +3421,33 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="L39" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="O39" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -2461,21 +3461,33 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="H40" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="L40" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="O40" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -2489,21 +3501,33 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="L41" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="O41" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -2517,21 +3541,33 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="L42" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="O42" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -2545,21 +3581,33 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="O43" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -2573,21 +3621,33 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="O44" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -2601,21 +3661,33 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="H45" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="O45" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -2629,21 +3701,33 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="O46" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -2657,21 +3741,33 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="F47" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="H47" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="L47" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="O47" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -2685,21 +3781,33 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="F48" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -2713,21 +3821,33 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="O49" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -2741,21 +3861,33 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="H50" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="L50" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="O50" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -2769,21 +3901,33 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="L51" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -2797,21 +3941,33 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L52" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="O52" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -2825,21 +3981,33 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="L53" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="O53" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -2853,21 +4021,33 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="L54" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="O54" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -2881,21 +4061,33 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="F55" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="L55" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="O55" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -2909,21 +4101,33 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="L56" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="O56" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -2937,21 +4141,33 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="H57" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="L57" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="O57" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -2965,21 +4181,33 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="H58" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="L58" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="O58" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -2993,21 +4221,33 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="H59" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="L59" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="O59" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -3021,21 +4261,33 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="H60" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="L60" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
+      <c r="O60" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -3049,21 +4301,33 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="H61" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="L61" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
+      <c r="O61" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -3077,21 +4341,33 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="H62" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="L62" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="O62" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -3105,21 +4381,33 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="F63" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="H63" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="L63" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="O63" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -3133,21 +4421,33 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="H64" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="L64" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="O64" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -3161,21 +4461,33 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="H65" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="L65" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
+      <c r="O65" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -3189,21 +4501,33 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="H66" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="L66" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="O66" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -3217,21 +4541,33 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="L67" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="O67" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -3245,21 +4581,33 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="H68" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="O68" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -3273,21 +4621,33 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="L69" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
+      <c r="O69" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -3301,21 +4661,33 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="H70" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="L70" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="O70" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
@@ -3329,21 +4701,33 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="F71" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="H71" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="L71" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
+      <c r="O71" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -3357,21 +4741,33 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="H72" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="L72" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="O72" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
@@ -3385,21 +4781,33 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="L73" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
+      <c r="O73" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
@@ -3413,21 +4821,33 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="H74" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="L74" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
+      <c r="O74" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
@@ -3441,21 +4861,33 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="F75" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="H75" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="L75" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
+      <c r="O75" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -3469,21 +4901,33 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="H76" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="L76" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
+      <c r="O76" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -3497,21 +4941,33 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="H77" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="L77" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
+      <c r="O77" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -3525,21 +4981,33 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="H78" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="L78" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+      <c r="O78" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
@@ -3553,21 +5021,33 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="H79" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="L79" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
+      <c r="O79" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
@@ -3581,21 +5061,33 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="H80" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="L80" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
+      <c r="O80" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
@@ -3609,21 +5101,33 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="F81" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="H81" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="L81" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
+      <c r="O81" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -3637,21 +5141,33 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="H82" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="L82" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
+      <c r="O82" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
@@ -3665,21 +5181,33 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="F83" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="H83" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="L83" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="O83" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -3693,21 +5221,33 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="F84" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="H84" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="L84" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
+      <c r="O84" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -3721,21 +5261,33 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="H85" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="L85" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
+      <c r="O85" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -3749,21 +5301,33 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="H86" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="L86" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
+      <c r="O86" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
@@ -3777,21 +5341,33 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="H87" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
+      <c r="L87" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
+      <c r="O87" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -3805,21 +5381,33 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="H88" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="L88" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
+      <c r="O88" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
@@ -3833,21 +5421,33 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="F89" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="H89" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
+      <c r="L89" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
+      <c r="O89" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
@@ -3861,21 +5461,33 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="H90" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="L90" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
+      <c r="O90" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
@@ -3889,21 +5501,33 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="L91" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
+      <c r="O91" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
@@ -3917,21 +5541,33 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="H92" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="L92" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
+      <c r="O92" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
@@ -3945,21 +5581,33 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="H93" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="L93" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
+      <c r="O93" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -3973,21 +5621,33 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="H94" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="L94" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
+      <c r="O94" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -4001,21 +5661,33 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="F95" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="H95" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="L95" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
+      <c r="O95" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -4029,21 +5701,33 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="F96" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="H96" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="L96" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
+      <c r="O96" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -4057,21 +5741,33 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="F97" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="H97" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="L97" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="O97" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
@@ -4085,21 +5781,33 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" ht="13.55" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="H98" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
+      <c r="L98" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
+      <c r="O98" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -4113,21 +5821,33 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" ht="13.55" customHeight="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="H99" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="L99" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
+      <c r="O99" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -4141,21 +5861,33 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" ht="13.55" customHeight="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+      <c r="H100" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="L100" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="O100" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
@@ -4169,21 +5901,33 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" ht="13.55" customHeight="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="L101" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
+      <c r="O101" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
@@ -4197,21 +5941,33 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" ht="13.55" customHeight="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="F102" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="H102" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="L102" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
+      <c r="O102" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
@@ -4225,21 +5981,33 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" ht="13.55" customHeight="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="L103" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
+      <c r="O103" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
@@ -4253,21 +6021,33 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" ht="13.55" customHeight="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="F104" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="H104" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
+      <c r="L104" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
+      <c r="O104" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
@@ -4281,21 +6061,33 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" ht="13.55" customHeight="1">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="F105" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="H105" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
+      <c r="L105" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
+      <c r="O105" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -4309,21 +6101,33 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="F106" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+      <c r="H106" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="L106" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="O106" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
@@ -4337,21 +6141,33 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" ht="13.55" customHeight="1">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="H107" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
+      <c r="L107" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="O107" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
@@ -4365,21 +6181,33 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" ht="13.55" customHeight="1">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
+      <c r="H108" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
+      <c r="L108" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
+      <c r="O108" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
@@ -4393,21 +6221,33 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" ht="13.55" customHeight="1">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="F109" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="H109" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
+      <c r="L109" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+      <c r="O109" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -4421,21 +6261,33 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" ht="13.55" customHeight="1">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="H110" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
+      <c r="L110" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
+      <c r="O110" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
@@ -4449,21 +6301,33 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" ht="13.55" customHeight="1">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="F111" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="H111" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+      <c r="L111" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="O111" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
@@ -4477,21 +6341,33 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" ht="13.55" customHeight="1">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="F112" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="H112" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
+      <c r="L112" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
+      <c r="O112" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
@@ -4505,21 +6381,33 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" ht="13.55" customHeight="1">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="F113" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="H113" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="L113" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
+      <c r="O113" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
@@ -4533,21 +6421,33 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" ht="13.55" customHeight="1">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="F114" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="H114" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
+      <c r="L114" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
+      <c r="O114" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
@@ -4561,21 +6461,33 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" ht="13.55" customHeight="1">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>32</v>
+      </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="F115" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="H115" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="L115" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
+      <c r="O115" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
@@ -4589,21 +6501,33 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" ht="13.55" customHeight="1">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="F116" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="H116" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="L116" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
+      <c r="O116" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
@@ -4617,21 +6541,33 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" ht="13.55" customHeight="1">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+      <c r="F117" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="H117" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="L117" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
+      <c r="O117" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
@@ -4645,21 +6581,33 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" ht="13.55" customHeight="1">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="F118" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="H118" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="L118" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
+      <c r="O118" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
@@ -4673,21 +6621,33 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" ht="13.55" customHeight="1">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="F119" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="H119" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="L119" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
+      <c r="O119" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
@@ -4701,21 +6661,33 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" ht="13.55" customHeight="1">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="H120" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
+      <c r="L120" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="O120" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
@@ -4729,21 +6701,33 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" ht="13.55" customHeight="1">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="H121" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="L121" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
+      <c r="O121" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
@@ -4757,21 +6741,33 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" ht="13.55" customHeight="1">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="F122" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="H122" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
+      <c r="L122" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
+      <c r="O122" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
@@ -4785,21 +6781,33 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" ht="13.55" customHeight="1">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="F123" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="H123" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
+      <c r="L123" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
+      <c r="O123" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
@@ -4820,7 +6828,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -4848,7 +6856,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="H125" s="2"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -4876,7 +6884,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -4904,7 +6912,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="2"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -4932,7 +6940,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
+      <c r="H128" s="2"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -4960,7 +6968,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -4988,7 +6996,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+      <c r="H130" s="2"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -5016,7 +7024,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+      <c r="H131" s="2"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -5044,7 +7052,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="2"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -5072,7 +7080,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="2"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -5100,7 +7108,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="2"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -5128,7 +7136,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="2"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -5156,7 +7164,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="2"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -5184,7 +7192,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="2"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -5212,7 +7220,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="2"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -5240,7 +7248,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="2"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -5268,7 +7276,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="2"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -5296,7 +7304,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+      <c r="H141" s="2"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -5324,7 +7332,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="2"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -5352,7 +7360,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+      <c r="H143" s="2"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -5380,7 +7388,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="H144" s="2"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -5408,7 +7416,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -5436,7 +7444,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="2"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -5464,7 +7472,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="2"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -5492,7 +7500,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -5520,7 +7528,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+      <c r="H149" s="2"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -5548,7 +7556,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+      <c r="H150" s="2"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -5576,7 +7584,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
+      <c r="H151" s="2"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -5604,7 +7612,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+      <c r="H152" s="2"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -5632,7 +7640,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -5660,7 +7668,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="2"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -5688,7 +7696,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
+      <c r="H155" s="2"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -5716,7 +7724,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
+      <c r="H156" s="2"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -5744,7 +7752,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -5772,7 +7780,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="H158" s="2"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -5800,7 +7808,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="H159" s="2"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -5828,7 +7836,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="2"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -5856,7 +7864,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -5884,7 +7892,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="H162" s="2"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -5912,7 +7920,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="H163" s="2"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -5940,7 +7948,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="H164" s="2"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -5968,7 +7976,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="H165" s="2"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -5996,7 +8004,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+      <c r="H166" s="2"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -6024,7 +8032,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="H167" s="2"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -6052,7 +8060,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="H168" s="2"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -6080,7 +8088,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -6108,7 +8116,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="H170" s="2"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -6136,7 +8144,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+      <c r="H171" s="2"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -6164,7 +8172,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="2"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -6192,7 +8200,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+      <c r="H173" s="2"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -6220,7 +8228,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+      <c r="H174" s="2"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -6248,7 +8256,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="H175" s="2"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -6276,7 +8284,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="H176" s="2"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -6304,7 +8312,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="2"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -6332,7 +8340,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="H178" s="2"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -6360,7 +8368,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
+      <c r="H179" s="2"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -6388,7 +8396,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+      <c r="H180" s="2"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -6416,7 +8424,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+      <c r="H181" s="2"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -6444,7 +8452,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+      <c r="H182" s="2"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -6472,7 +8480,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+      <c r="H183" s="2"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -6500,7 +8508,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
+      <c r="H184" s="2"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -6528,7 +8536,7 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+      <c r="H185" s="2"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -6556,7 +8564,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
+      <c r="H186" s="2"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -6584,7 +8592,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="H187" s="2"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -6612,7 +8620,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+      <c r="H188" s="2"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -6640,7 +8648,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="2"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -6668,7 +8676,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+      <c r="H190" s="2"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -6696,7 +8704,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
+      <c r="H191" s="2"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -6724,7 +8732,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="H192" s="2"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -6752,7 +8760,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+      <c r="H193" s="2"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -6780,7 +8788,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="H194" s="2"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -6808,7 +8816,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+      <c r="H195" s="2"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -6836,7 +8844,7 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="H196" s="2"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -6864,7 +8872,7 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
+      <c r="H197" s="2"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -6892,7 +8900,7 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
+      <c r="H198" s="2"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -6920,7 +8928,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
+      <c r="H199" s="2"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -6948,7 +8956,7 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+      <c r="H200" s="2"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -6976,7 +8984,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
+      <c r="H201" s="2"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -7004,7 +9012,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
+      <c r="H202" s="2"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -7032,7 +9040,7 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="H203" s="2"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -7060,7 +9068,7 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+      <c r="H204" s="2"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -7088,7 +9096,7 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="H205" s="2"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -7116,7 +9124,7 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="H206" s="2"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -7144,7 +9152,7 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="H207" s="2"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -7172,7 +9180,7 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="H208" s="2"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -7200,7 +9208,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+      <c r="H209" s="2"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -7228,7 +9236,7 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="H210" s="2"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -7256,7 +9264,7 @@
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+      <c r="H211" s="2"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -7284,7 +9292,7 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="H212" s="2"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -7312,7 +9320,7 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
+      <c r="H213" s="2"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
@@ -7340,7 +9348,7 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
+      <c r="H214" s="2"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
@@ -7368,7 +9376,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+      <c r="H215" s="2"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
@@ -7396,7 +9404,7 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+      <c r="H216" s="2"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
@@ -7424,7 +9432,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
+      <c r="H217" s="2"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
@@ -7452,7 +9460,7 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+      <c r="H218" s="2"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -7480,7 +9488,7 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
+      <c r="H219" s="2"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
@@ -7508,7 +9516,7 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
+      <c r="H220" s="2"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
@@ -7536,7 +9544,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+      <c r="H221" s="2"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
@@ -7564,7 +9572,7 @@
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+      <c r="H222" s="2"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -7592,7 +9600,7 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+      <c r="H223" s="2"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -7620,7 +9628,7 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
+      <c r="H224" s="2"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -7648,7 +9656,7 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
+      <c r="H225" s="2"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -7676,7 +9684,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
+      <c r="H226" s="2"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -7704,7 +9712,7 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+      <c r="H227" s="2"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -7732,7 +9740,7 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
+      <c r="H228" s="2"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -7760,7 +9768,7 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
+      <c r="H229" s="2"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
@@ -7788,7 +9796,7 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="H230" s="2"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -7816,7 +9824,7 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
+      <c r="H231" s="2"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -7844,7 +9852,7 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="H232" s="2"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -7872,7 +9880,7 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="H233" s="2"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -7900,7 +9908,7 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
+      <c r="H234" s="2"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -7928,7 +9936,7 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
+      <c r="H235" s="2"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -7956,7 +9964,7 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
+      <c r="H236" s="2"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -7984,7 +9992,7 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="H237" s="2"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -8012,7 +10020,7 @@
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
+      <c r="H238" s="2"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
@@ -8040,7 +10048,7 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="H239" s="2"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
@@ -8068,7 +10076,7 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
+      <c r="H240" s="2"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
@@ -8096,7 +10104,7 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="H241" s="2"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -8124,7 +10132,7 @@
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="2"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
@@ -8152,7 +10160,7 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="H243" s="2"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
@@ -8180,7 +10188,7 @@
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
+      <c r="H244" s="2"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
@@ -8208,7 +10216,7 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
+      <c r="H245" s="2"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
@@ -8236,7 +10244,7 @@
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
+      <c r="H246" s="2"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
@@ -8264,7 +10272,7 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
+      <c r="H247" s="2"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -8292,7 +10300,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
+      <c r="H248" s="2"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
@@ -8320,7 +10328,7 @@
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="H249" s="2"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
@@ -8348,7 +10356,7 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
+      <c r="H250" s="2"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
@@ -8376,7 +10384,7 @@
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="H251" s="2"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
@@ -8404,7 +10412,7 @@
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
+      <c r="H252" s="2"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
@@ -8432,7 +10440,7 @@
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
+      <c r="H253" s="2"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
@@ -8460,7 +10468,7 @@
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
+      <c r="H254" s="2"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
@@ -8488,7 +10496,7 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
+      <c r="H255" s="2"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
@@ -8516,7 +10524,7 @@
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
+      <c r="H256" s="2"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
@@ -8544,7 +10552,7 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
+      <c r="H257" s="2"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
@@ -8572,7 +10580,7 @@
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
+      <c r="H258" s="2"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
@@ -8600,7 +10608,7 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
+      <c r="H259" s="2"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
@@ -8628,7 +10636,7 @@
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="H260" s="2"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
@@ -8656,7 +10664,7 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="H261" s="2"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
@@ -8684,7 +10692,7 @@
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="H262" s="2"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
@@ -8712,7 +10720,7 @@
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
+      <c r="H263" s="2"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
@@ -8740,7 +10748,7 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="H264" s="2"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
@@ -8768,7 +10776,7 @@
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
+      <c r="H265" s="2"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
@@ -8796,7 +10804,7 @@
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
+      <c r="H266" s="2"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
@@ -8824,7 +10832,7 @@
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="H267" s="2"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
@@ -8852,7 +10860,7 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="H268" s="2"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
@@ -8880,7 +10888,7 @@
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="H269" s="2"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
@@ -8908,7 +10916,7 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="H270" s="2"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
@@ -8936,7 +10944,7 @@
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="H271" s="2"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
@@ -8964,7 +10972,7 @@
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
+      <c r="H272" s="2"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
@@ -8992,7 +11000,7 @@
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
+      <c r="H273" s="2"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
@@ -9020,7 +11028,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
+      <c r="H274" s="2"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -9048,7 +11056,7 @@
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
+      <c r="H275" s="2"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
@@ -9076,7 +11084,7 @@
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
+      <c r="H276" s="2"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
@@ -9104,7 +11112,7 @@
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
+      <c r="H277" s="2"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
@@ -9132,7 +11140,7 @@
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="H278" s="2"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
@@ -9160,7 +11168,7 @@
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="H279" s="2"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
@@ -9188,7 +11196,7 @@
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="H280" s="2"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
@@ -9216,7 +11224,7 @@
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
+      <c r="H281" s="2"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
@@ -9244,7 +11252,7 @@
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="H282" s="2"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
@@ -9272,7 +11280,7 @@
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="H283" s="2"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
@@ -9300,7 +11308,7 @@
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="H284" s="2"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
@@ -9328,7 +11336,7 @@
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="H285" s="2"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
@@ -9356,7 +11364,7 @@
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
+      <c r="H286" s="2"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
@@ -9384,7 +11392,7 @@
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
+      <c r="H287" s="2"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
@@ -9412,7 +11420,7 @@
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="H288" s="2"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
@@ -9440,7 +11448,7 @@
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
+      <c r="H289" s="2"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
@@ -9468,7 +11476,7 @@
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
+      <c r="H290" s="2"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
@@ -9496,7 +11504,7 @@
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
+      <c r="H291" s="2"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
@@ -9524,7 +11532,7 @@
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
+      <c r="H292" s="2"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
@@ -9552,7 +11560,7 @@
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
+      <c r="H293" s="2"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
@@ -9580,7 +11588,7 @@
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
+      <c r="H294" s="2"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
@@ -9608,7 +11616,7 @@
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
+      <c r="H295" s="2"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
@@ -9636,7 +11644,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="H296" s="2"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
@@ -9664,7 +11672,7 @@
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="H297" s="2"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
@@ -9692,7 +11700,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+      <c r="H298" s="2"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
@@ -9720,7 +11728,7 @@
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
+      <c r="H299" s="2"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
@@ -9748,7 +11756,7 @@
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="H300" s="2"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
@@ -9776,7 +11784,7 @@
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
+      <c r="H301" s="2"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
@@ -9804,7 +11812,7 @@
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
+      <c r="H302" s="2"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
@@ -9832,7 +11840,7 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
+      <c r="H303" s="2"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
@@ -9860,7 +11868,7 @@
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
+      <c r="H304" s="2"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
@@ -9888,7 +11896,7 @@
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
+      <c r="H305" s="2"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
@@ -9916,7 +11924,7 @@
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
+      <c r="H306" s="2"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
@@ -9944,7 +11952,7 @@
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
+      <c r="H307" s="2"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
@@ -9972,7 +11980,7 @@
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
+      <c r="H308" s="2"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
@@ -10000,7 +12008,7 @@
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
+      <c r="H309" s="2"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
@@ -10028,7 +12036,7 @@
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="H310" s="2"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
@@ -10056,7 +12064,7 @@
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
+      <c r="H311" s="2"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
@@ -10084,7 +12092,7 @@
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
+      <c r="H312" s="2"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
@@ -10112,7 +12120,7 @@
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
+      <c r="H313" s="2"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
@@ -10140,7 +12148,7 @@
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
+      <c r="H314" s="2"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
@@ -10168,7 +12176,7 @@
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="H315" s="2"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
@@ -10196,7 +12204,7 @@
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
+      <c r="H316" s="2"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
@@ -10224,7 +12232,7 @@
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="H317" s="2"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
@@ -10252,7 +12260,7 @@
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+      <c r="H318" s="2"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
@@ -10280,7 +12288,7 @@
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+      <c r="H319" s="2"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
@@ -10308,7 +12316,7 @@
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="H320" s="2"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
@@ -10336,7 +12344,7 @@
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
+      <c r="H321" s="2"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
@@ -10364,7 +12372,7 @@
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
+      <c r="H322" s="2"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
@@ -10392,7 +12400,7 @@
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
+      <c r="H323" s="2"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
@@ -10420,7 +12428,7 @@
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
+      <c r="H324" s="2"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -10448,7 +12456,7 @@
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
+      <c r="H325" s="2"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
@@ -10476,7 +12484,7 @@
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
+      <c r="H326" s="2"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
@@ -10504,7 +12512,7 @@
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
+      <c r="H327" s="2"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
@@ -10532,7 +12540,7 @@
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
+      <c r="H328" s="2"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
@@ -10560,7 +12568,7 @@
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
+      <c r="H329" s="2"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
@@ -10588,7 +12596,7 @@
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
+      <c r="H330" s="2"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
@@ -10616,7 +12624,7 @@
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
+      <c r="H331" s="2"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
@@ -10644,7 +12652,7 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
+      <c r="H332" s="2"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
@@ -10672,7 +12680,7 @@
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
+      <c r="H333" s="2"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
@@ -10700,7 +12708,7 @@
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
+      <c r="H334" s="2"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
@@ -10728,7 +12736,7 @@
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
+      <c r="H335" s="2"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
@@ -10756,7 +12764,7 @@
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
+      <c r="H336" s="2"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
@@ -10784,7 +12792,7 @@
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
+      <c r="H337" s="2"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
@@ -10812,7 +12820,7 @@
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
+      <c r="H338" s="2"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
@@ -10840,7 +12848,7 @@
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="H339" s="2"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
@@ -10868,7 +12876,7 @@
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
+      <c r="H340" s="2"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
@@ -10896,7 +12904,7 @@
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
+      <c r="H341" s="2"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
@@ -10924,7 +12932,7 @@
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="H342" s="2"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
@@ -10952,7 +12960,7 @@
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="H343" s="2"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
@@ -10980,7 +12988,7 @@
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
+      <c r="H344" s="2"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
@@ -11008,7 +13016,7 @@
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
+      <c r="H345" s="2"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
@@ -11036,7 +13044,7 @@
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
+      <c r="H346" s="2"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
@@ -11064,7 +13072,7 @@
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
+      <c r="H347" s="2"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
@@ -11092,7 +13100,7 @@
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
+      <c r="H348" s="2"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
@@ -11120,7 +13128,7 @@
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
+      <c r="H349" s="2"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
@@ -11148,7 +13156,7 @@
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
+      <c r="H350" s="2"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
@@ -11176,7 +13184,7 @@
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
+      <c r="H351" s="2"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
@@ -11204,7 +13212,7 @@
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
+      <c r="H352" s="2"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
@@ -11232,7 +13240,7 @@
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
+      <c r="H353" s="2"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
@@ -11260,7 +13268,7 @@
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
+      <c r="H354" s="2"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
@@ -11288,7 +13296,7 @@
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
+      <c r="H355" s="2"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
@@ -11316,7 +13324,7 @@
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
+      <c r="H356" s="2"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
@@ -11344,7 +13352,7 @@
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
+      <c r="H357" s="2"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
@@ -11372,7 +13380,7 @@
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
+      <c r="H358" s="2"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
@@ -11400,7 +13408,7 @@
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
+      <c r="H359" s="2"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
@@ -11428,7 +13436,7 @@
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
+      <c r="H360" s="2"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
@@ -11456,7 +13464,7 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
+      <c r="H361" s="2"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
@@ -11484,7 +13492,7 @@
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
+      <c r="H362" s="2"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
@@ -11512,7 +13520,7 @@
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
+      <c r="H363" s="2"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
@@ -11540,7 +13548,7 @@
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
+      <c r="H364" s="2"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
@@ -11568,7 +13576,7 @@
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
+      <c r="H365" s="2"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
@@ -11596,7 +13604,7 @@
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
+      <c r="H366" s="2"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
@@ -11624,7 +13632,7 @@
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
+      <c r="H367" s="2"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
@@ -11652,7 +13660,7 @@
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
+      <c r="H368" s="2"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
@@ -11680,7 +13688,7 @@
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
+      <c r="H369" s="2"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
@@ -11708,7 +13716,7 @@
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
+      <c r="H370" s="2"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
@@ -11736,7 +13744,7 @@
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
+      <c r="H371" s="2"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
@@ -11764,7 +13772,7 @@
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
+      <c r="H372" s="2"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
@@ -11792,7 +13800,7 @@
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
+      <c r="H373" s="2"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
@@ -11820,7 +13828,7 @@
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
+      <c r="H374" s="2"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
